--- a/biology/Histoire de la zoologie et de la botanique/Philippe_Jauzein/Philippe_Jauzein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philippe_Jauzein/Philippe_Jauzein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Jauzein, né le 24 janvier 1953, est un agronome et botaniste français, spécialiste de la flore française et des adventices des cultures. Enseignant chercheur dès 1975 à l'École nationale supérieure d'horticulture de Versailles, il a exercé à AgroParisTech, centre de Grignon[2] à l'UFR Pathologie végétale et protection des plantes[3] et à l'UFR Ecologie, Adaptation, Interactions[4].
-Il a décrit ou recombiné une trentaine de taxons de plantes vasculaires[5] et son activité a été distinguée par le prix Coincy[6].
-Il est connu pour sa vision synthétique des espèces botaniques[7] (à contre‐courant de la tendance actuelle qui consiste à élever les taxons de rang inférieur vers un rang supérieur ou à définir des taxons sur des critères génétiques sans aucune différence morphologique), afin de maintenir la stabilité nomenclaturale et de préserver la botanique de terrain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Jauzein, né le 24 janvier 1953, est un agronome et botaniste français, spécialiste de la flore française et des adventices des cultures. Enseignant chercheur dès 1975 à l'École nationale supérieure d'horticulture de Versailles, il a exercé à AgroParisTech, centre de Grignon à l'UFR Pathologie végétale et protection des plantes et à l'UFR Ecologie, Adaptation, Interactions.
+Il a décrit ou recombiné une trentaine de taxons de plantes vasculaires et son activité a été distinguée par le prix Coincy.
+Il est connu pour sa vision synthétique des espèces botaniques (à contre‐courant de la tendance actuelle qui consiste à élever les taxons de rang inférieur vers un rang supérieur ou à définir des taxons sur des critères génétiques sans aucune différence morphologique), afin de maintenir la stabilité nomenclaturale et de préserver la botanique de terrain.
 À la suite de la publication de sa recherche Cytotaxonomie de la flore francilienne, il invite les botanistes à approfondir la connaissance des espèces par l’analyse de leurs chromosomes.
 </t>
         </is>
